--- a/统计文档/中期统计.xlsx
+++ b/统计文档/中期统计.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LIU\Desktop\tsp\统计文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuch\Desktop\tsp\统计文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0499D928-C49C-4D7A-A979-B717CE24619B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54664565-5407-4E78-A0F6-30CB62668748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3855,29 +3855,30 @@
   <dimension ref="A1:U197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="19.625" customWidth="1"/>
-    <col min="4" max="5" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.58203125" customWidth="1"/>
+    <col min="4" max="5" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="9" width="21.625" customWidth="1"/>
-    <col min="10" max="10" width="13.875" customWidth="1"/>
-    <col min="11" max="11" width="17.625" customWidth="1"/>
-    <col min="12" max="12" width="13.25" customWidth="1"/>
-    <col min="13" max="13" width="16.875" customWidth="1"/>
-    <col min="14" max="14" width="12.625" customWidth="1"/>
-    <col min="15" max="15" width="11.125" customWidth="1"/>
-    <col min="17" max="17" width="12.375" customWidth="1"/>
-    <col min="18" max="18" width="10.625" customWidth="1"/>
+    <col min="7" max="8" width="21.58203125" customWidth="1"/>
+    <col min="9" max="9" width="18.25" customWidth="1"/>
+    <col min="10" max="10" width="19.25" customWidth="1"/>
+    <col min="11" max="11" width="22.4140625" customWidth="1"/>
+    <col min="12" max="12" width="20.25" customWidth="1"/>
+    <col min="13" max="13" width="21.4140625" customWidth="1"/>
+    <col min="14" max="14" width="12.58203125" customWidth="1"/>
+    <col min="15" max="15" width="11.08203125" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" customWidth="1"/>
+    <col min="18" max="18" width="10.58203125" customWidth="1"/>
     <col min="20" max="20" width="14.5" customWidth="1"/>
     <col min="21" max="21" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3933,7 +3934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5</v>
       </c>
@@ -3997,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>6</v>
       </c>
@@ -4061,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7</v>
       </c>
@@ -4125,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8</v>
       </c>
@@ -4189,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9</v>
       </c>
@@ -4253,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -4317,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>11</v>
       </c>
@@ -4381,7 +4382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>12</v>
       </c>
@@ -4445,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>13</v>
       </c>
@@ -4509,7 +4510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14</v>
       </c>
@@ -4573,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>15</v>
       </c>
@@ -4637,7 +4638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>16</v>
       </c>
@@ -4701,7 +4702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>17</v>
       </c>
@@ -4765,7 +4766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>18</v>
       </c>
@@ -4829,7 +4830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>19</v>
       </c>
@@ -4893,7 +4894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>20</v>
       </c>
@@ -4957,7 +4958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>21</v>
       </c>
@@ -5021,7 +5022,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>22</v>
       </c>
@@ -5085,7 +5086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>23</v>
       </c>
@@ -5149,7 +5150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>24</v>
       </c>
@@ -5213,7 +5214,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>25</v>
       </c>
@@ -5277,7 +5278,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>26</v>
       </c>
@@ -5341,7 +5342,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>27</v>
       </c>
@@ -5405,7 +5406,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>28</v>
       </c>
@@ -5469,7 +5470,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>29</v>
       </c>
@@ -5533,7 +5534,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>30</v>
       </c>
@@ -5597,7 +5598,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>31</v>
       </c>
@@ -5661,7 +5662,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>32</v>
       </c>
@@ -5725,7 +5726,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>33</v>
       </c>
@@ -5789,7 +5790,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>34</v>
       </c>
@@ -5853,7 +5854,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>35</v>
       </c>
@@ -5917,7 +5918,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>36</v>
       </c>
@@ -5981,7 +5982,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>37</v>
       </c>
@@ -6045,7 +6046,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>38</v>
       </c>
@@ -6109,7 +6110,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>39</v>
       </c>
@@ -6173,7 +6174,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>40</v>
       </c>
@@ -6237,7 +6238,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>41</v>
       </c>
@@ -6301,7 +6302,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>42</v>
       </c>
@@ -6365,7 +6366,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>43</v>
       </c>
@@ -6429,7 +6430,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>44</v>
       </c>
@@ -6493,7 +6494,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>45</v>
       </c>
@@ -6557,7 +6558,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>46</v>
       </c>
@@ -6621,7 +6622,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>47</v>
       </c>
@@ -6685,7 +6686,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>48</v>
       </c>
@@ -6749,7 +6750,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>49</v>
       </c>
@@ -6813,7 +6814,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>50</v>
       </c>
@@ -6877,7 +6878,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>51</v>
       </c>
@@ -6941,7 +6942,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>52</v>
       </c>
@@ -7005,7 +7006,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>53</v>
       </c>
@@ -7069,7 +7070,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>54</v>
       </c>
@@ -7133,7 +7134,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>55</v>
       </c>
@@ -7197,7 +7198,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>56</v>
       </c>
@@ -7261,7 +7262,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>57</v>
       </c>
@@ -7325,7 +7326,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>58</v>
       </c>
@@ -7389,7 +7390,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>59</v>
       </c>
@@ -7453,7 +7454,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>60</v>
       </c>
@@ -7517,7 +7518,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>61</v>
       </c>
@@ -7581,7 +7582,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>62</v>
       </c>
@@ -7645,7 +7646,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>63</v>
       </c>
@@ -7709,7 +7710,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>64</v>
       </c>
@@ -7773,7 +7774,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>65</v>
       </c>
@@ -7837,7 +7838,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>66</v>
       </c>
@@ -7901,7 +7902,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>67</v>
       </c>
@@ -7965,7 +7966,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>68</v>
       </c>
@@ -8029,7 +8030,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>69</v>
       </c>
@@ -8093,7 +8094,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>70</v>
       </c>
@@ -8157,7 +8158,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>71</v>
       </c>
@@ -8221,7 +8222,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>72</v>
       </c>
@@ -8285,7 +8286,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>73</v>
       </c>
@@ -8349,7 +8350,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>74</v>
       </c>
@@ -8413,7 +8414,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>75</v>
       </c>
@@ -8477,7 +8478,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>76</v>
       </c>
@@ -8541,7 +8542,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>77</v>
       </c>
@@ -8605,7 +8606,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>78</v>
       </c>
@@ -8669,7 +8670,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>79</v>
       </c>
@@ -8733,7 +8734,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>80</v>
       </c>
@@ -8797,7 +8798,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>81</v>
       </c>
@@ -8861,7 +8862,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>82</v>
       </c>
@@ -8925,7 +8926,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>83</v>
       </c>
@@ -8989,7 +8990,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>84</v>
       </c>
@@ -9053,7 +9054,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>85</v>
       </c>
@@ -9117,7 +9118,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>86</v>
       </c>
@@ -9181,7 +9182,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>87</v>
       </c>
@@ -9245,7 +9246,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>88</v>
       </c>
@@ -9309,7 +9310,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>89</v>
       </c>
@@ -9373,7 +9374,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>90</v>
       </c>
@@ -9437,7 +9438,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>91</v>
       </c>
@@ -9501,7 +9502,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>92</v>
       </c>
@@ -9565,7 +9566,7 @@
         <v>2526</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>93</v>
       </c>
@@ -9629,7 +9630,7 @@
         <v>2666</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>94</v>
       </c>
@@ -9693,7 +9694,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>95</v>
       </c>
@@ -9757,7 +9758,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>96</v>
       </c>
@@ -9821,7 +9822,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>97</v>
       </c>
@@ -9885,7 +9886,7 @@
         <v>2988</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>98</v>
       </c>
@@ -9949,7 +9950,7 @@
         <v>3056</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>99</v>
       </c>
@@ -10013,7 +10014,7 @@
         <v>3193</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>100</v>
       </c>
@@ -10077,7 +10078,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>101</v>
       </c>
@@ -10141,7 +10142,7 @@
         <v>3267</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>102</v>
       </c>
@@ -10205,7 +10206,7 @@
         <v>3409</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>103</v>
       </c>
@@ -10269,7 +10270,7 @@
         <v>3483</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>104</v>
       </c>
@@ -10333,7 +10334,7 @@
         <v>3429</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>105</v>
       </c>
@@ -10397,7 +10398,7 @@
         <v>3584</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>106</v>
       </c>
@@ -10461,7 +10462,7 @@
         <v>3860</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>107</v>
       </c>
@@ -10525,7 +10526,7 @@
         <v>3815</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>108</v>
       </c>
@@ -10589,7 +10590,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>109</v>
       </c>
@@ -10653,7 +10654,7 @@
         <v>4010</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>110</v>
       </c>
@@ -10717,7 +10718,7 @@
         <v>4047</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>111</v>
       </c>
@@ -10781,7 +10782,7 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>112</v>
       </c>
@@ -10845,7 +10846,7 @@
         <v>4254</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>113</v>
       </c>
@@ -10909,7 +10910,7 @@
         <v>4357</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>114</v>
       </c>
@@ -10973,7 +10974,7 @@
         <v>4452</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>115</v>
       </c>
@@ -11037,7 +11038,7 @@
         <v>4586</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>116</v>
       </c>
@@ -11101,7 +11102,7 @@
         <v>4624</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>117</v>
       </c>
@@ -11165,7 +11166,7 @@
         <v>4756</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>118</v>
       </c>
@@ -11229,7 +11230,7 @@
         <v>4727</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>119</v>
       </c>
@@ -11293,7 +11294,7 @@
         <v>4899</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>120</v>
       </c>
@@ -11357,7 +11358,7 @@
         <v>4989</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>121</v>
       </c>
@@ -11421,7 +11422,7 @@
         <v>5149</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>122</v>
       </c>
@@ -11485,7 +11486,7 @@
         <v>5219</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>123</v>
       </c>
@@ -11549,7 +11550,7 @@
         <v>5331</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>124</v>
       </c>
@@ -11613,7 +11614,7 @@
         <v>5428</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>125</v>
       </c>
@@ -11677,7 +11678,7 @@
         <v>5566</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>126</v>
       </c>
@@ -11741,7 +11742,7 @@
         <v>5601</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>127</v>
       </c>
@@ -11805,7 +11806,7 @@
         <v>5592</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>128</v>
       </c>
@@ -11869,7 +11870,7 @@
         <v>5959</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>129</v>
       </c>
@@ -11933,7 +11934,7 @@
         <v>5744</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>130</v>
       </c>
@@ -11997,7 +11998,7 @@
         <v>5859</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>131</v>
       </c>
@@ -12061,7 +12062,7 @@
         <v>6141</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>132</v>
       </c>
@@ -12125,7 +12126,7 @@
         <v>6181</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>133</v>
       </c>
@@ -12189,7 +12190,7 @@
         <v>6317</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>134</v>
       </c>
@@ -12253,7 +12254,7 @@
         <v>6423</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>135</v>
       </c>
@@ -12317,7 +12318,7 @@
         <v>6545</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>136</v>
       </c>
@@ -12381,7 +12382,7 @@
         <v>6728</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>137</v>
       </c>
@@ -12445,7 +12446,7 @@
         <v>6894</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>138</v>
       </c>
@@ -12509,7 +12510,7 @@
         <v>7046</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>139</v>
       </c>
@@ -12573,7 +12574,7 @@
         <v>7151</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>140</v>
       </c>
@@ -12637,7 +12638,7 @@
         <v>7194</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>141</v>
       </c>
@@ -12701,7 +12702,7 @@
         <v>7401</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>142</v>
       </c>
@@ -12765,7 +12766,7 @@
         <v>7424</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>143</v>
       </c>
@@ -12829,7 +12830,7 @@
         <v>7470</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>144</v>
       </c>
@@ -12893,7 +12894,7 @@
         <v>7677</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>145</v>
       </c>
@@ -12957,7 +12958,7 @@
         <v>7733</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>146</v>
       </c>
@@ -13021,7 +13022,7 @@
         <v>7992</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>147</v>
       </c>
@@ -13085,7 +13086,7 @@
         <v>8083</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>148</v>
       </c>
@@ -13149,7 +13150,7 @@
         <v>8184</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>149</v>
       </c>
@@ -13213,7 +13214,7 @@
         <v>8152</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>150</v>
       </c>
@@ -13277,7 +13278,7 @@
         <v>8484</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>151</v>
       </c>
@@ -13341,7 +13342,7 @@
         <v>8604</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>152</v>
       </c>
@@ -13405,7 +13406,7 @@
         <v>8581</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>153</v>
       </c>
@@ -13469,7 +13470,7 @@
         <v>8808</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>154</v>
       </c>
@@ -13533,7 +13534,7 @@
         <v>8926</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>155</v>
       </c>
@@ -13597,7 +13598,7 @@
         <v>9101</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>156</v>
       </c>
@@ -13661,7 +13662,7 @@
         <v>9283</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>157</v>
       </c>
@@ -13725,7 +13726,7 @@
         <v>9378</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>158</v>
       </c>
@@ -13789,7 +13790,7 @@
         <v>9513</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>159</v>
       </c>
@@ -13853,7 +13854,7 @@
         <v>9575</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>160</v>
       </c>
@@ -13917,7 +13918,7 @@
         <v>9773</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>161</v>
       </c>
@@ -13981,7 +13982,7 @@
         <v>9980</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>162</v>
       </c>
@@ -14045,7 +14046,7 @@
         <v>10100</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>163</v>
       </c>
@@ -14109,7 +14110,7 @@
         <v>10154</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>164</v>
       </c>
@@ -14173,7 +14174,7 @@
         <v>10337</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>165</v>
       </c>
@@ -14237,7 +14238,7 @@
         <v>10437</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>166</v>
       </c>
@@ -14301,7 +14302,7 @@
         <v>10688</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>167</v>
       </c>
@@ -14365,7 +14366,7 @@
         <v>10716</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>168</v>
       </c>
@@ -14429,7 +14430,7 @@
         <v>11041</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>169</v>
       </c>
@@ -14493,7 +14494,7 @@
         <v>11008</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>170</v>
       </c>
@@ -14557,7 +14558,7 @@
         <v>11231</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>171</v>
       </c>
@@ -14621,7 +14622,7 @@
         <v>11382</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>172</v>
       </c>
@@ -14685,7 +14686,7 @@
         <v>11405</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>173</v>
       </c>
@@ -14749,7 +14750,7 @@
         <v>11603</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>174</v>
       </c>
@@ -14813,7 +14814,7 @@
         <v>11718</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>175</v>
       </c>
@@ -14877,7 +14878,7 @@
         <v>11903</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>176</v>
       </c>
@@ -14941,7 +14942,7 @@
         <v>12016</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>177</v>
       </c>
@@ -15005,7 +15006,7 @@
         <v>12266</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>178</v>
       </c>
@@ -15069,7 +15070,7 @@
         <v>12482</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>179</v>
       </c>
@@ -15133,7 +15134,7 @@
         <v>12784</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>180</v>
       </c>
@@ -15197,7 +15198,7 @@
         <v>12764</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>181</v>
       </c>
@@ -15261,7 +15262,7 @@
         <v>12944</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>182</v>
       </c>
@@ -15325,7 +15326,7 @@
         <v>13178</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>183</v>
       </c>
@@ -15389,7 +15390,7 @@
         <v>13130</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>184</v>
       </c>
@@ -15453,7 +15454,7 @@
         <v>13350</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>185</v>
       </c>
@@ -15517,7 +15518,7 @@
         <v>13567</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>186</v>
       </c>
@@ -15581,7 +15582,7 @@
         <v>13670</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>187</v>
       </c>
@@ -15645,7 +15646,7 @@
         <v>13920</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>188</v>
       </c>
@@ -15709,7 +15710,7 @@
         <v>14044</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>189</v>
       </c>
@@ -15773,7 +15774,7 @@
         <v>14117</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>190</v>
       </c>
@@ -15837,7 +15838,7 @@
         <v>14458</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>191</v>
       </c>
@@ -15901,7 +15902,7 @@
         <v>14499</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>192</v>
       </c>
@@ -15965,7 +15966,7 @@
         <v>14634</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>193</v>
       </c>
@@ -16029,7 +16030,7 @@
         <v>14831</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>194</v>
       </c>
@@ -16093,7 +16094,7 @@
         <v>14996</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>195</v>
       </c>
@@ -16157,7 +16158,7 @@
         <v>15234</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>196</v>
       </c>
@@ -16221,7 +16222,7 @@
         <v>15393</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>197</v>
       </c>
@@ -16285,7 +16286,7 @@
         <v>15561</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>198</v>
       </c>
@@ -16307,7 +16308,7 @@
         <v>0</v>
       </c>
       <c r="I195">
-        <f t="shared" ref="I195:I197" si="26">A195^2*(A195-1)</f>
+        <f t="shared" ref="I195:I196" si="26">A195^2*(A195-1)</f>
         <v>7723188</v>
       </c>
       <c r="J195">
@@ -16349,7 +16350,7 @@
         <v>15824</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>199</v>
       </c>
@@ -16413,7 +16414,7 @@
         <v>15932</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>200</v>
       </c>
